--- a/ExcelConfig/Excel/t_s_level-等级表.xlsx
+++ b/ExcelConfig/Excel/t_s_level-等级表.xlsx
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>列名 →</t>
   </si>
@@ -164,7 +164,13 @@
     <t>字段名称 →</t>
   </si>
   <si>
-    <t>testNumber</t>
+    <t>testNumber1</t>
+  </si>
+  <si>
+    <t>testNumber2</t>
+  </si>
+  <si>
+    <t>testNumber3</t>
   </si>
   <si>
     <t>testBool</t>
@@ -384,6 +390,174 @@
   </si>
   <si>
     <t>434&amp;someText|334&amp;someText2</t>
+  </si>
+  <si>
+    <t>1.23,4.57</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,1,1,2</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|467</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,2&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;9</t>
+  </si>
+  <si>
+    <t>54|56|34|676|36</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText3</t>
+  </si>
+  <si>
+    <t>1.23,4.58</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,1,1,3</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|468</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,3&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;10</t>
+  </si>
+  <si>
+    <t>54|56|34|676|37</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText4</t>
+  </si>
+  <si>
+    <t>1.23,4.59</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,1,1,4</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|469</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,4&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;11</t>
+  </si>
+  <si>
+    <t>54|56|34|676|38</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText5</t>
+  </si>
+  <si>
+    <t>1.23,4.60</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,1,1,5</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|470</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,5&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;12</t>
+  </si>
+  <si>
+    <t>54|56|34|676|39</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText6</t>
+  </si>
+  <si>
+    <t>1.23,4.61</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,6</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|471</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,6&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;13</t>
+  </si>
+  <si>
+    <t>54|56|34|676|40</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText7</t>
+  </si>
+  <si>
+    <t>1.23,4.62</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>1,1,1,7</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|472</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,7&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;14</t>
+  </si>
+  <si>
+    <t>54|56|34|676|41</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText8</t>
+  </si>
+  <si>
+    <t>1.23,4.63</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
+    <t>1,1,1,8</t>
+  </si>
+  <si>
+    <t>1|2|3|100|234|473</t>
+  </si>
+  <si>
+    <t>1&amp;0.12,0.55575,0.8999&amp;somepath|2&amp;1,1,8&amp;somePath</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3&amp;4|5&amp;6&amp;7&amp;15</t>
+  </si>
+  <si>
+    <t>54|56|34|676|42</t>
+  </si>
+  <si>
+    <t>434&amp;someText|334&amp;someText9</t>
   </si>
 </sst>
 </file>
@@ -1491,34 +1665,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.475" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.4083333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.1916666666667" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.4333333333333" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.1916666666667" style="10" customWidth="1"/>
-    <col min="10" max="11" width="17.7166666666667" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.1916666666667" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="10"/>
+    <col min="2" max="4" width="19.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.475" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.4083333333333" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.1916666666667" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.4333333333333" style="10" customWidth="1"/>
+    <col min="10" max="10" width="15" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.1916666666667" style="10" customWidth="1"/>
+    <col min="12" max="13" width="17.7166666666667" style="10" customWidth="1"/>
+    <col min="14" max="14" width="16.1916666666667" style="10" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:13">
+    <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1558,18 +1732,24 @@
       <c r="M1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="N1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1599,16 +1779,22 @@
       <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="N2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>18</v>
@@ -1640,61 +1826,67 @@
       <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="18" customHeight="1" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="18" customHeight="1" spans="1:15">
       <c r="A5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:6">
       <c r="A6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:1">
       <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="10">
         <v>10000</v>
       </c>
       <c r="B8" s="10">
-        <v>156</v>
-      </c>
-      <c r="C8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>36</v>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>37</v>
@@ -1719,21 +1911,356 @@
       </c>
       <c r="M8" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10">
+        <v>10001</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10">
+        <v>10002</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10">
+        <v>10003</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10">
+        <v>10004</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10">
+        <v>10005</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10">
+        <v>10006</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10">
+        <v>10007</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
   <dataValidations count="4">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1 E1 F1 G1 H1 I1 J1 K1 L1 M1 N1:XFD1 B2:J2 K2 L2 M2 N2:XFD2 D6">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1 E1 F1 G1 H1 I1 J1 K1 L1 M1 N1 O1 P1:XFD1 B2 C2 D2 E2:L2 M2 N2 O2 P2:XFD2 F6">
       <formula1>COUNTIF(1:1,B1)=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:J3 K3 L3 M3 N3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 C3 D3 E3:L3 M3 N3 O3 P3:XFD3">
       <formula1>"Number,Bool,String,Vector2,Vector3,Vector4,Color,List,ObjectList,ListList,Dict1,Dict2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A5 A1:A3 A6:A1048576">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A5 A8 A9 A10 A11 A12 A13 A1:A3 A6:A7 A14:A15 A16:A1048576">
       <formula1>COUNTIF(A:A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:J4 K4 L4:M4 N4:XFD4 B5:J5 K5 L5:M5 N5:XFD5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 C4 D4 E4:L4 M4 N4:O4 P4:XFD4 B5 C5 D5 E5:L5 M5 N5:O5 P5:XFD5"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
